--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Google Drive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4E4B8E-5AAB-40C4-93E4-B57193F3A958}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFDCB92-8FD0-44A2-9217-6D104EAC86EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,10 +423,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
